--- a/H1AR10/Released/BOM/H1AR1.xlsx
+++ b/H1AR10/Released/BOM/H1AR1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Qty</t>
   </si>
@@ -254,9 +254,6 @@
     <t>https://octopart.com/ft230xq-r-ftdi-22061504?r=sp</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>VLMS1300-GS08</t>
   </si>
   <si>
@@ -266,12 +263,6 @@
     <t>Red 0603 130° Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
   </si>
   <si>
-    <t>VLMTG1300-GS08</t>
-  </si>
-  <si>
-    <t>https://octopart.com/vlmtg1300-gs08-vishay-21709202</t>
-  </si>
-  <si>
     <t>LM3940IMP-3.3</t>
   </si>
   <si>
@@ -350,16 +341,40 @@
     <t>designator</t>
   </si>
   <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>Green 0603 130° Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
-  </si>
-  <si>
     <t>Conn Unshrouded Header HDR 2 POS 2.54mm Solder ST Thru-Hole Bag/Box</t>
   </si>
   <si>
     <t>MCU 32-bit ARM Cortex M0 RISC 128KB Flash 2.5V/3.3V 48-Pin UFQFPN EP Frame</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Yellow 0603 130° Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
+  </si>
+  <si>
+    <t>Orange 0603 130° Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>VLMY1300-GS08</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlmy1300-gs08-vishay-21709204?r=sp#</t>
+  </si>
+  <si>
+    <t>VLMO1300-GS08</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlmo1300-gs08-vishay-21709200?r=sp</t>
   </si>
 </sst>
 </file>
@@ -489,6 +504,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,10 +588,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -763,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -994,94 +1077,92 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -1090,22 +1171,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>95</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1114,48 +1195,46 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.05</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H15" s="2">
         <v>0.05</v>
@@ -1163,13 +1242,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>8</v>
@@ -1178,22 +1257,24 @@
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>8</v>
@@ -1202,39 +1283,37 @@
         <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.01</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H18" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,7 +1324,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>8</v>
@@ -1268,25 +1347,25 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H20" s="2">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,46 +1373,48 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>111</v>
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -1342,22 +1423,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -1366,33 +1447,59 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C2:C26">
     <sortCondition ref="C2:C26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://octopart.com/vlmy1300-gs08-vishay-21709204?r=sp"/>
+    <hyperlink ref="G11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>